--- a/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 20211.xlsx
+++ b/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>MARTHA</t>
   </si>
 </sst>
 </file>
@@ -779,7 +797,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,6 +830,52 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 20211.xlsx
+++ b/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Mat</t>
   </si>
@@ -73,16 +73,25 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
     <t>MACARIO</t>
   </si>
   <si>
+    <t>MORO</t>
+  </si>
+  <si>
     <t>ZUÑIGA</t>
   </si>
   <si>
     <t>NIEVES</t>
+  </si>
+  <si>
+    <t>DENISSE</t>
   </si>
   <si>
     <t>MARCO ANTONIO</t>
@@ -797,7 +806,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -832,22 +841,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920159</v>
+        <v>19330051920201</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -855,16 +864,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920165</v>
+        <v>19330051920159</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -873,6 +882,29 @@
         <v>10</v>
       </c>
       <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 20211.xlsx
+++ b/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>Mat</t>
   </si>
@@ -73,31 +73,40 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
     <t>JUAREZ</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
   </si>
   <si>
     <t>MORO</t>
   </si>
   <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>MARTHA</t>
   </si>
   <si>
     <t>DENISSE</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>MARTHA</t>
   </si>
 </sst>
 </file>
@@ -806,7 +815,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -841,16 +850,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920201</v>
+        <v>19330051920195</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -870,10 +879,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -893,10 +902,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -905,6 +914,29 @@
         <v>10</v>
       </c>
       <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
     </row>
